--- a/gameTb/client/table/脚本配置.xlsx
+++ b/gameTb/client/table/脚本配置.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unseen\gameTb\client\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\solution\resource\gameTb\client\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7545" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="luaEngine" sheetId="5" r:id="rId1"/>
@@ -93,7 +93,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>method</t>
+    <t>platform/method</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,14 +445,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.875" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -487,7 +487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
